--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$131</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5299" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595" uniqueCount="557">
   <si>
     <t>Path</t>
   </si>
@@ -790,15 +790,6 @@
   </si>
   <si>
     <t>Claim Administrator/Enrolment Officer UUID generated by openIMIS.</t>
-  </si>
-  <si>
-    <t>DBID</t>
-  </si>
-  <si>
-    <t>openIMIS Database ID</t>
-  </si>
-  <si>
-    <t>Claim Administrator/Enrolment Officer Database ID generated by openIMIS.</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -1901,7 +1892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM151"/>
+  <dimension ref="A1:AM131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9747,11 +9738,9 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B71" t="s" s="2">
         <v>251</v>
       </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9760,7 +9749,7 @@
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
@@ -9772,22 +9761,26 @@
         <v>51</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="N71" t="s" s="2">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="Q71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9831,13 +9824,13 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
@@ -9846,21 +9839,21 @@
         <v>62</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>115</v>
+        <v>257</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>117</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>118</v>
+        <v>259</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9868,7 +9861,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>50</v>
@@ -9880,19 +9873,23 @@
         <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>40</v>
       </c>
@@ -9940,28 +9937,28 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>40</v>
@@ -9969,18 +9966,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>40</v>
@@ -9992,17 +9989,15 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -10039,31 +10034,31 @@
         <v>40</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>40</v>
@@ -10080,43 +10075,41 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>40</v>
       </c>
@@ -10140,49 +10133,49 @@
         <v>40</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -10193,7 +10186,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10210,25 +10203,25 @@
         <v>40</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>142</v>
+        <v>272</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>143</v>
+        <v>273</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -10238,7 +10231,7 @@
         <v>40</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>40</v>
@@ -10253,13 +10246,13 @@
         <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -10277,7 +10270,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -10292,13 +10285,13 @@
         <v>62</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>40</v>
@@ -10306,7 +10299,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>150</v>
+        <v>282</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10326,19 +10319,23 @@
         <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>40</v>
       </c>
@@ -10386,7 +10383,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10398,13 +10395,13 @@
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -10413,41 +10410,41 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>95</v>
+        <v>291</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>97</v>
+        <v>292</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10485,62 +10482,62 @@
         <v>40</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>152</v>
+        <v>299</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>40</v>
@@ -10549,20 +10546,18 @@
         <v>51</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>40</v>
       </c>
@@ -10610,7 +10605,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>158</v>
+        <v>304</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10625,13 +10620,13 @@
         <v>62</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>160</v>
+        <v>306</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>40</v>
@@ -10639,7 +10634,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>161</v>
+        <v>308</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10650,7 +10645,7 @@
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>40</v>
@@ -10659,16 +10654,16 @@
         <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>119</v>
+        <v>309</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10719,28 +10714,28 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>121</v>
+        <v>311</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>122</v>
+        <v>313</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>40</v>
@@ -10748,11 +10743,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>162</v>
+        <v>315</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10768,20 +10763,18 @@
         <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>97</v>
+        <v>316</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>40</v>
@@ -10818,19 +10811,19 @@
         <v>40</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>128</v>
+        <v>318</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10842,13 +10835,13 @@
         <v>40</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>122</v>
+        <v>320</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10859,7 +10852,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10882,19 +10875,17 @@
         <v>51</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>164</v>
+        <v>322</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>167</v>
+        <v>324</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10943,7 +10934,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>168</v>
+        <v>325</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10958,13 +10949,13 @@
         <v>62</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>169</v>
+        <v>326</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>170</v>
+        <v>327</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
@@ -10972,7 +10963,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>171</v>
+        <v>328</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10983,7 +10974,7 @@
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>50</v>
+        <v>329</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>40</v>
@@ -10995,18 +10986,20 @@
         <v>51</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>52</v>
+        <v>330</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>172</v>
+        <v>331</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>173</v>
+        <v>332</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>40</v>
       </c>
@@ -11042,25 +11035,23 @@
         <v>40</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="AB82" s="2"/>
       <c r="AC82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>175</v>
+        <v>328</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
@@ -11069,13 +11060,13 @@
         <v>62</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>176</v>
+        <v>336</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>40</v>
@@ -11083,7 +11074,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11091,7 +11082,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>50</v>
@@ -11103,21 +11094,19 @@
         <v>40</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>40</v>
       </c>
@@ -11126,7 +11115,7 @@
         <v>40</v>
       </c>
       <c r="R83" t="s" s="2">
-        <v>251</v>
+        <v>40</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>40</v>
@@ -11165,7 +11154,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -11177,13 +11166,13 @@
         <v>40</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -11194,18 +11183,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>186</v>
+        <v>340</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>40</v>
@@ -11214,21 +11203,21 @@
         <v>40</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>40</v>
       </c>
@@ -11264,37 +11253,37 @@
         <v>40</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -11305,7 +11294,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>193</v>
+        <v>341</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11328,20 +11317,16 @@
         <v>51</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>195</v>
+        <v>342</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>40</v>
       </c>
@@ -11365,13 +11350,13 @@
         <v>40</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>40</v>
@@ -11389,7 +11374,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>199</v>
+        <v>346</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11398,19 +11383,19 @@
         <v>50</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>40</v>
+        <v>347</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>201</v>
+        <v>349</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>40</v>
@@ -11418,7 +11403,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>202</v>
+        <v>351</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11426,7 +11411,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>50</v>
@@ -11444,16 +11429,16 @@
         <v>52</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>203</v>
+        <v>352</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>204</v>
+        <v>353</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>205</v>
+        <v>354</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>206</v>
+        <v>355</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11502,7 +11487,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>207</v>
+        <v>356</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11517,13 +11502,13 @@
         <v>62</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>208</v>
+        <v>357</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>209</v>
+        <v>358</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
@@ -11531,7 +11516,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>210</v>
+        <v>359</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11548,25 +11533,25 @@
         <v>40</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>211</v>
+        <v>360</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>212</v>
+        <v>361</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>213</v>
+        <v>362</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>214</v>
+        <v>363</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
@@ -11579,7 +11564,7 @@
         <v>40</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>40</v>
@@ -11591,13 +11576,13 @@
         <v>40</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>40</v>
+        <v>364</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>40</v>
+        <v>365</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>40</v>
@@ -11615,7 +11600,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>216</v>
+        <v>366</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11630,13 +11615,13 @@
         <v>62</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>217</v>
+        <v>367</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>40</v>
@@ -11644,7 +11629,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>220</v>
+        <v>369</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11667,16 +11652,16 @@
         <v>51</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>52</v>
+        <v>370</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>221</v>
+        <v>371</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>222</v>
+        <v>372</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>223</v>
+        <v>373</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11690,7 +11675,7 @@
         <v>40</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>40</v>
@@ -11726,7 +11711,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>225</v>
+        <v>374</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11741,13 +11726,13 @@
         <v>62</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>40</v>
@@ -11755,7 +11740,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>229</v>
+        <v>375</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11781,10 +11766,10 @@
         <v>230</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>231</v>
+        <v>376</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>232</v>
+        <v>377</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11835,7 +11820,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11850,10 +11835,10 @@
         <v>62</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>234</v>
+        <v>93</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>235</v>
+        <v>327</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>236</v>
@@ -11864,9 +11849,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B90" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="C90" t="s" s="2">
         <v>40</v>
       </c>
@@ -11887,18 +11874,20 @@
         <v>51</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>238</v>
+        <v>330</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>239</v>
+        <v>380</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>40</v>
       </c>
@@ -11946,13 +11935,13 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>242</v>
+        <v>328</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>40</v>
@@ -11961,13 +11950,13 @@
         <v>62</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>243</v>
+        <v>336</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>245</v>
+        <v>338</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>40</v>
@@ -11975,7 +11964,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11986,7 +11975,7 @@
         <v>41</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>40</v>
@@ -11995,29 +11984,23 @@
         <v>40</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P91" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
         <v>40</v>
       </c>
@@ -12061,7 +12044,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -12073,35 +12056,35 @@
         <v>40</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>260</v>
+        <v>122</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>261</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>40</v>
@@ -12110,23 +12093,21 @@
         <v>40</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>263</v>
+        <v>96</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>265</v>
+        <v>124</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>40</v>
       </c>
@@ -12162,19 +12143,19 @@
         <v>40</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>262</v>
+        <v>128</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -12186,16 +12167,16 @@
         <v>40</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>40</v>
@@ -12203,7 +12184,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12211,7 +12192,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>50</v>
@@ -12223,16 +12204,16 @@
         <v>40</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>119</v>
+        <v>342</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>120</v>
+        <v>343</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12244,7 +12225,7 @@
         <v>40</v>
       </c>
       <c r="R93" t="s" s="2">
-        <v>40</v>
+        <v>379</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>40</v>
@@ -12259,13 +12240,13 @@
         <v>40</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>40</v>
@@ -12283,7 +12264,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>121</v>
+        <v>346</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -12292,19 +12273,19 @@
         <v>50</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>40</v>
+        <v>347</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>40</v>
+        <v>348</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>122</v>
+        <v>349</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>40</v>
@@ -12312,18 +12293,18 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>40</v>
@@ -12332,21 +12313,23 @@
         <v>40</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>97</v>
+        <v>352</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>124</v>
+        <v>353</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>40</v>
       </c>
@@ -12382,40 +12365,40 @@
         <v>40</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>128</v>
+        <v>356</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>122</v>
+        <v>358</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>40</v>
@@ -12423,7 +12406,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12449,16 +12432,16 @@
         <v>70</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>40</v>
@@ -12468,7 +12451,7 @@
         <v>40</v>
       </c>
       <c r="R95" t="s" s="2">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>40</v>
@@ -12486,10 +12469,10 @@
         <v>134</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>279</v>
+        <v>364</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>40</v>
@@ -12507,7 +12490,7 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>281</v>
+        <v>366</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -12522,13 +12505,13 @@
         <v>62</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>40</v>
@@ -12536,7 +12519,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12559,20 +12542,18 @@
         <v>51</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>52</v>
+        <v>370</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>286</v>
+        <v>371</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>40</v>
       </c>
@@ -12620,7 +12601,7 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>41</v>
@@ -12635,10 +12616,10 @@
         <v>62</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>291</v>
+        <v>122</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>292</v>
+        <v>122</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>40</v>
@@ -12647,23 +12628,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>40</v>
@@ -12672,17 +12653,15 @@
         <v>51</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>52</v>
+        <v>230</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>295</v>
+        <v>376</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>40</v>
@@ -12731,7 +12710,7 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -12746,35 +12725,37 @@
         <v>62</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>299</v>
+        <v>93</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B98" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="C98" t="s" s="2">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>40</v>
@@ -12783,18 +12764,20 @@
         <v>51</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>52</v>
+        <v>330</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>40</v>
       </c>
@@ -12842,7 +12825,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12857,13 +12840,13 @@
         <v>62</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>40</v>
@@ -12871,7 +12854,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12882,7 +12865,7 @@
         <v>41</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>40</v>
@@ -12891,16 +12874,16 @@
         <v>40</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>313</v>
+        <v>120</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12951,28 +12934,28 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>314</v>
+        <v>121</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>316</v>
+        <v>122</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>317</v>
+        <v>40</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>40</v>
@@ -12980,11 +12963,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13000,18 +12983,20 @@
         <v>40</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>40</v>
@@ -13048,19 +13033,19 @@
         <v>40</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>321</v>
+        <v>128</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -13072,13 +13057,13 @@
         <v>40</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>323</v>
+        <v>122</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>40</v>
@@ -13089,7 +13074,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13097,7 +13082,7 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>50</v>
@@ -13112,18 +13097,16 @@
         <v>51</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="M101" s="2"/>
-      <c r="N101" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>40</v>
       </c>
@@ -13132,7 +13115,7 @@
         <v>40</v>
       </c>
       <c r="R101" t="s" s="2">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>40</v>
@@ -13147,13 +13130,13 @@
         <v>40</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>40</v>
@@ -13171,7 +13154,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -13180,19 +13163,19 @@
         <v>50</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>40</v>
+        <v>347</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>236</v>
+        <v>350</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>40</v>
@@ -13200,7 +13183,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13211,7 +13194,7 @@
         <v>41</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>332</v>
+        <v>50</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>40</v>
@@ -13223,19 +13206,19 @@
         <v>51</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>333</v>
+        <v>52</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>40</v>
@@ -13272,23 +13255,25 @@
         <v>40</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AB102" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>40</v>
@@ -13297,13 +13282,13 @@
         <v>62</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>341</v>
+        <v>228</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>40</v>
@@ -13311,7 +13296,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13328,22 +13313,26 @@
         <v>40</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>119</v>
+        <v>360</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>40</v>
       </c>
@@ -13367,13 +13356,13 @@
         <v>40</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>40</v>
+        <v>364</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>40</v>
+        <v>365</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>40</v>
@@ -13391,7 +13380,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>121</v>
+        <v>366</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -13403,16 +13392,16 @@
         <v>40</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>40</v>
+        <v>367</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>122</v>
+        <v>280</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>40</v>
+        <v>368</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>40</v>
@@ -13420,18 +13409,18 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>40</v>
@@ -13440,19 +13429,19 @@
         <v>40</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>96</v>
+        <v>370</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>97</v>
+        <v>371</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>124</v>
+        <v>372</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>99</v>
+        <v>373</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -13490,34 +13479,34 @@
         <v>40</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>128</v>
+        <v>374</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>122</v>
@@ -13531,7 +13520,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13554,13 +13543,13 @@
         <v>51</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13587,13 +13576,13 @@
         <v>40</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>40</v>
@@ -13611,7 +13600,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13620,27 +13609,27 @@
         <v>50</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>351</v>
+        <v>93</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>353</v>
+        <v>236</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13654,7 +13643,7 @@
         <v>50</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>40</v>
@@ -13663,19 +13652,19 @@
         <v>51</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>52</v>
+        <v>386</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>40</v>
@@ -13724,13 +13713,13 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>40</v>
@@ -13739,13 +13728,13 @@
         <v>62</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>228</v>
+        <v>393</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>40</v>
@@ -13753,7 +13742,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13770,26 +13759,22 @@
         <v>40</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>363</v>
+        <v>119</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>40</v>
       </c>
@@ -13813,13 +13798,13 @@
         <v>40</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>367</v>
+        <v>40</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>40</v>
@@ -13837,7 +13822,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>369</v>
+        <v>121</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -13849,16 +13834,16 @@
         <v>40</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>370</v>
+        <v>40</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>283</v>
+        <v>122</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>371</v>
+        <v>40</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>40</v>
@@ -13866,7 +13851,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13874,10 +13859,10 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>40</v>
@@ -13886,20 +13871,18 @@
         <v>40</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>373</v>
+        <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>40</v>
@@ -13936,37 +13919,37 @@
         <v>40</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>40</v>
@@ -13975,38 +13958,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B109" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="C109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>230</v>
+        <v>399</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14057,28 +14042,28 @@
         <v>40</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>381</v>
+        <v>128</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>40</v>
@@ -14086,11 +14071,9 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
         <v>40</v>
       </c>
@@ -14105,25 +14088,25 @@
         <v>40</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>333</v>
+        <v>70</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>336</v>
+        <v>405</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>337</v>
+        <v>406</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>40</v>
@@ -14136,7 +14119,7 @@
         <v>40</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>40</v>
+        <v>407</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>40</v>
@@ -14148,13 +14131,13 @@
         <v>40</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>40</v>
+        <v>408</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>40</v>
+        <v>409</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>40</v>
@@ -14172,13 +14155,13 @@
         <v>40</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>40</v>
@@ -14187,13 +14170,13 @@
         <v>62</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>339</v>
+        <v>411</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>341</v>
+        <v>412</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>40</v>
@@ -14201,7 +14184,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14221,18 +14204,20 @@
         <v>40</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>119</v>
+        <v>414</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M111" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>40</v>
@@ -14242,10 +14227,10 @@
         <v>40</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>40</v>
+        <v>417</v>
       </c>
       <c r="S111" t="s" s="2">
-        <v>40</v>
+        <v>418</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>40</v>
@@ -14257,13 +14242,13 @@
         <v>40</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>40</v>
+        <v>419</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>40</v>
@@ -14281,7 +14266,7 @@
         <v>40</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -14293,13 +14278,13 @@
         <v>40</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>40</v>
+        <v>422</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>122</v>
+        <v>280</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>40</v>
@@ -14310,18 +14295,18 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>40</v>
@@ -14330,21 +14315,23 @@
         <v>40</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>97</v>
+        <v>424</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>124</v>
+        <v>425</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>40</v>
       </c>
@@ -14356,7 +14343,7 @@
         <v>40</v>
       </c>
       <c r="S112" t="s" s="2">
-        <v>40</v>
+        <v>427</v>
       </c>
       <c r="T112" t="s" s="2">
         <v>40</v>
@@ -14380,37 +14367,37 @@
         <v>40</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>128</v>
+        <v>428</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>40</v>
+        <v>429</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>40</v>
@@ -14421,7 +14408,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14429,7 +14416,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>50</v>
@@ -14444,13 +14431,13 @@
         <v>51</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>346</v>
+        <v>432</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14462,10 +14449,10 @@
         <v>40</v>
       </c>
       <c r="R113" t="s" s="2">
-        <v>382</v>
+        <v>40</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>40</v>
+        <v>433</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>40</v>
@@ -14477,13 +14464,13 @@
         <v>40</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>40</v>
@@ -14501,28 +14488,28 @@
         <v>40</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>349</v>
+        <v>434</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>351</v>
+        <v>435</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>352</v>
+        <v>436</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>353</v>
+        <v>437</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>40</v>
@@ -14530,18 +14517,18 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>354</v>
+        <v>438</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>40</v>
+        <v>439</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>40</v>
@@ -14556,17 +14543,13 @@
         <v>52</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>355</v>
+        <v>440</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>40</v>
       </c>
@@ -14578,7 +14561,7 @@
         <v>40</v>
       </c>
       <c r="S114" t="s" s="2">
-        <v>40</v>
+        <v>442</v>
       </c>
       <c r="T114" t="s" s="2">
         <v>40</v>
@@ -14614,7 +14597,7 @@
         <v>40</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>359</v>
+        <v>443</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -14629,57 +14612,55 @@
         <v>62</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>360</v>
+        <v>444</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>361</v>
+        <v>445</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>228</v>
+        <v>446</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>40</v>
+        <v>448</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>363</v>
+        <v>449</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>364</v>
+        <v>450</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>40</v>
       </c>
@@ -14691,7 +14672,7 @@
         <v>40</v>
       </c>
       <c r="S115" t="s" s="2">
-        <v>40</v>
+        <v>452</v>
       </c>
       <c r="T115" t="s" s="2">
         <v>40</v>
@@ -14703,13 +14684,13 @@
         <v>40</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>367</v>
+        <v>40</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>40</v>
@@ -14727,7 +14708,7 @@
         <v>40</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>369</v>
+        <v>453</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -14742,35 +14723,35 @@
         <v>62</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>370</v>
+        <v>454</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>283</v>
+        <v>455</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>371</v>
+        <v>40</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
-        <v>372</v>
+        <v>456</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>40</v>
+        <v>457</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>40</v>
@@ -14779,17 +14760,15 @@
         <v>51</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>373</v>
+        <v>52</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>374</v>
+        <v>458</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>40</v>
@@ -14838,7 +14817,7 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>377</v>
+        <v>460</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -14853,13 +14832,13 @@
         <v>62</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>122</v>
+        <v>461</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>122</v>
+        <v>462</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>40</v>
+        <v>463</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>40</v>
@@ -14867,18 +14846,18 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>378</v>
+        <v>464</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>40</v>
+        <v>465</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>40</v>
@@ -14890,13 +14869,13 @@
         <v>51</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>380</v>
+        <v>467</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14911,7 +14890,7 @@
         <v>40</v>
       </c>
       <c r="S117" t="s" s="2">
-        <v>40</v>
+        <v>468</v>
       </c>
       <c r="T117" t="s" s="2">
         <v>40</v>
@@ -14947,7 +14926,7 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>381</v>
+        <v>469</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -14962,13 +14941,13 @@
         <v>62</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>93</v>
+        <v>470</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>330</v>
+        <v>471</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>236</v>
+        <v>472</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>40</v>
@@ -14976,11 +14955,9 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
         <v>40</v>
       </c>
@@ -14989,7 +14966,7 @@
         <v>41</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>40</v>
@@ -15001,20 +14978,18 @@
         <v>51</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>333</v>
+        <v>52</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>386</v>
+        <v>474</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>40</v>
       </c>
@@ -15062,13 +15037,13 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>331</v>
+        <v>477</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>40</v>
@@ -15077,13 +15052,13 @@
         <v>62</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>339</v>
+        <v>478</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>340</v>
+        <v>479</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>341</v>
+        <v>480</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>40</v>
@@ -15091,7 +15066,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>342</v>
+        <v>481</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15111,19 +15086,21 @@
         <v>40</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>52</v>
+        <v>230</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>119</v>
+        <v>482</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>120</v>
+        <v>483</v>
       </c>
       <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+      <c r="N119" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>40</v>
       </c>
@@ -15135,7 +15112,7 @@
         <v>40</v>
       </c>
       <c r="S119" t="s" s="2">
-        <v>40</v>
+        <v>485</v>
       </c>
       <c r="T119" t="s" s="2">
         <v>40</v>
@@ -15171,7 +15148,7 @@
         <v>40</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>121</v>
+        <v>486</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>41</v>
@@ -15183,16 +15160,16 @@
         <v>40</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>40</v>
+        <v>487</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>122</v>
+        <v>327</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>40</v>
@@ -15200,18 +15177,18 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>343</v>
+        <v>488</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>40</v>
@@ -15220,21 +15197,21 @@
         <v>40</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>97</v>
+        <v>489</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N120" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="M120" s="2"/>
+      <c r="N120" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="O120" t="s" s="2">
         <v>40</v>
       </c>
@@ -15258,60 +15235,60 @@
         <v>40</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>40</v>
+        <v>492</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>40</v>
+        <v>493</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>128</v>
+        <v>488</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>40</v>
+        <v>494</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>122</v>
+        <v>495</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>40</v>
+        <v>496</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
-        <v>344</v>
+        <v>497</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15325,7 +15302,7 @@
         <v>50</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>40</v>
@@ -15334,16 +15311,18 @@
         <v>51</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>70</v>
+        <v>498</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>345</v>
+        <v>499</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>346</v>
+        <v>500</v>
       </c>
       <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
+      <c r="N121" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="O121" t="s" s="2">
         <v>40</v>
       </c>
@@ -15352,7 +15331,7 @@
         <v>40</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>40</v>
@@ -15367,13 +15346,13 @@
         <v>40</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>40</v>
@@ -15391,7 +15370,7 @@
         <v>40</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>349</v>
+        <v>497</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -15400,19 +15379,19 @@
         <v>50</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>351</v>
+        <v>502</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>352</v>
+        <v>503</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>353</v>
+        <v>504</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>40</v>
@@ -15420,7 +15399,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>354</v>
+        <v>505</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15431,7 +15410,7 @@
         <v>41</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>40</v>
@@ -15440,22 +15419,20 @@
         <v>40</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>52</v>
+        <v>506</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>355</v>
+        <v>507</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>358</v>
+        <v>509</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>40</v>
@@ -15504,13 +15481,13 @@
         <v>40</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>359</v>
+        <v>505</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>40</v>
@@ -15519,13 +15496,13 @@
         <v>62</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>361</v>
+        <v>510</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>228</v>
+        <v>511</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>40</v>
@@ -15533,7 +15510,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>362</v>
+        <v>512</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15541,7 +15518,7 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>50</v>
@@ -15550,26 +15527,22 @@
         <v>40</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>70</v>
+        <v>513</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>363</v>
+        <v>514</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>40</v>
       </c>
@@ -15593,13 +15566,13 @@
         <v>40</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>367</v>
+        <v>40</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>40</v>
@@ -15617,13 +15590,13 @@
         <v>40</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>369</v>
+        <v>512</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>40</v>
@@ -15632,13 +15605,13 @@
         <v>62</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>370</v>
+        <v>516</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>283</v>
+        <v>517</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>40</v>
@@ -15646,7 +15619,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>372</v>
+        <v>519</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15666,20 +15639,18 @@
         <v>40</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>373</v>
+        <v>52</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>374</v>
+        <v>119</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>40</v>
@@ -15728,7 +15699,7 @@
         <v>40</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>377</v>
+        <v>121</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -15740,10 +15711,10 @@
         <v>40</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>122</v>
@@ -15757,18 +15728,18 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>378</v>
+        <v>520</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>40</v>
@@ -15777,18 +15748,20 @@
         <v>40</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>379</v>
+        <v>97</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>40</v>
@@ -15837,71 +15810,71 @@
         <v>40</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>381</v>
+        <v>128</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>330</v>
+        <v>122</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>388</v>
+        <v>521</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>40</v>
+        <v>522</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H126" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I126" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>389</v>
+        <v>96</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>390</v>
+        <v>523</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>391</v>
+        <v>524</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>392</v>
+        <v>99</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>393</v>
+        <v>105</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>40</v>
@@ -15950,7 +15923,7 @@
         <v>40</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>388</v>
+        <v>525</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -15962,16 +15935,16 @@
         <v>40</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>394</v>
+        <v>40</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>395</v>
+        <v>93</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>396</v>
+        <v>40</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>40</v>
@@ -15979,7 +15952,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>397</v>
+        <v>526</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15990,7 +15963,7 @@
         <v>41</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>40</v>
@@ -16002,16 +15975,18 @@
         <v>40</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>119</v>
+        <v>527</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>120</v>
+        <v>528</v>
       </c>
       <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+      <c r="N127" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>40</v>
       </c>
@@ -16059,25 +16034,25 @@
         <v>40</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>121</v>
+        <v>526</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>122</v>
+        <v>530</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>40</v>
@@ -16088,7 +16063,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>398</v>
+        <v>531</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16099,7 +16074,7 @@
         <v>50</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>40</v>
@@ -16111,13 +16086,13 @@
         <v>40</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>399</v>
+        <v>532</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16129,7 +16104,7 @@
         <v>40</v>
       </c>
       <c r="R128" t="s" s="2">
-        <v>40</v>
+        <v>534</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>40</v>
@@ -16144,76 +16119,74 @@
         <v>40</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>40</v>
+        <v>535</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>40</v>
+        <v>536</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>40</v>
+        <v>537</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA128" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AC128" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD128" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>128</v>
+        <v>531</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>40</v>
+        <v>517</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>40</v>
+        <v>538</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>40</v>
@@ -16222,16 +16195,18 @@
         <v>40</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>402</v>
+        <v>230</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>403</v>
+        <v>540</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>404</v>
+        <v>541</v>
       </c>
       <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>40</v>
       </c>
@@ -16279,28 +16254,28 @@
         <v>40</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>128</v>
+        <v>539</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>40</v>
+        <v>543</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>40</v>
+        <v>544</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>40</v>
@@ -16308,7 +16283,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>405</v>
+        <v>545</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16325,26 +16300,22 @@
         <v>40</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>406</v>
+        <v>546</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>40</v>
       </c>
@@ -16356,7 +16327,7 @@
         <v>40</v>
       </c>
       <c r="S130" t="s" s="2">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="T130" t="s" s="2">
         <v>40</v>
@@ -16368,13 +16339,13 @@
         <v>40</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>411</v>
+        <v>40</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>40</v>
@@ -16392,7 +16363,7 @@
         <v>40</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>413</v>
+        <v>545</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>41</v>
@@ -16407,13 +16378,13 @@
         <v>62</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>414</v>
+        <v>40</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>283</v>
+        <v>548</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>415</v>
+        <v>40</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>40</v>
@@ -16421,7 +16392,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>416</v>
+        <v>549</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16432,7 +16403,7 @@
         <v>41</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>40</v>
@@ -16441,21 +16412,23 @@
         <v>40</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>418</v>
+        <v>551</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N131" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>40</v>
       </c>
@@ -16464,10 +16437,10 @@
         <v>40</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="S131" t="s" s="2">
-        <v>421</v>
+        <v>40</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>40</v>
@@ -16479,13 +16452,13 @@
         <v>40</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>423</v>
+        <v>76</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>40</v>
@@ -16503,13 +16476,13 @@
         <v>40</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>424</v>
+        <v>549</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>40</v>
@@ -16518,2230 +16491,20 @@
         <v>62</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>425</v>
+        <v>554</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>283</v>
+        <v>555</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>40</v>
+        <v>556</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F132" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P132" s="2"/>
-      <c r="Q132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F135" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P135" s="2"/>
-      <c r="Q135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F136" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P136" s="2"/>
-      <c r="Q136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="137" hidden="true">
-      <c r="A137" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P137" s="2"/>
-      <c r="Q137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="138" hidden="true">
-      <c r="A138" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P138" s="2"/>
-      <c r="Q138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="139" hidden="true">
-      <c r="A139" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F139" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M139" s="2"/>
-      <c r="N139" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P139" s="2"/>
-      <c r="Q139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="140" hidden="true">
-      <c r="A140" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M140" s="2"/>
-      <c r="N140" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P140" s="2"/>
-      <c r="Q140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F141" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M141" s="2"/>
-      <c r="N141" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P141" s="2"/>
-      <c r="Q141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="142" hidden="true">
-      <c r="A142" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M142" s="2"/>
-      <c r="N142" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P142" s="2"/>
-      <c r="Q142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="143" hidden="true">
-      <c r="A143" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B143" s="2"/>
-      <c r="C143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F143" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P143" s="2"/>
-      <c r="Q143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="144" hidden="true">
-      <c r="A144" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F144" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P144" s="2"/>
-      <c r="Q144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="145" hidden="true">
-      <c r="A145" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B145" s="2"/>
-      <c r="C145" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F145" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N145" s="2"/>
-      <c r="O145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P145" s="2"/>
-      <c r="Q145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="146" hidden="true">
-      <c r="A146" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F146" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P146" s="2"/>
-      <c r="Q146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM146" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="147" hidden="true">
-      <c r="A147" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F147" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M147" s="2"/>
-      <c r="N147" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P147" s="2"/>
-      <c r="Q147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="148" hidden="true">
-      <c r="A148" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F148" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P148" s="2"/>
-      <c r="Q148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R148" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="149" hidden="true">
-      <c r="A149" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B149" s="2"/>
-      <c r="C149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F149" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M149" s="2"/>
-      <c r="N149" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P149" s="2"/>
-      <c r="Q149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="150" hidden="true">
-      <c r="A150" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B150" s="2"/>
-      <c r="C150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F150" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P150" s="2"/>
-      <c r="Q150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="151" hidden="true">
-      <c r="A151" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P151" s="2"/>
-      <c r="Q151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y151" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AM151" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM151">
+  <autoFilter ref="A1:AM131">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18751,7 +16514,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI150">
+  <conditionalFormatting sqref="A2:AI130">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -13637,7 +13637,7 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>50</v>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:19:28+00:00</t>
+    <t>2021-09-01T13:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:21:06+00:00</t>
+    <t>2021-09-14T14:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:32:44+00:00</t>
+    <t>2021-09-14T14:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:33:18+00:00</t>
+    <t>2021-09-15T10:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:06:59+00:00</t>
+    <t>2021-09-15T10:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:19:11+00:00</t>
+    <t>2021-09-17T09:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:55:36+00:00</t>
+    <t>2021-09-17T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:56:14+00:00</t>
+    <t>2021-09-17T10:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:02+00:00</t>
+    <t>2021-09-17T10:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:57+00:00</t>
+    <t>2021-09-17T16:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:26+00:00</t>
+    <t>2021-09-28T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
+++ b/StructureDefinition-openimis-enrolment-officer-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
